--- a/25mar.xlsx
+++ b/25mar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MA Unggulan Ar-Rahman\Mars.Com\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\coderbodoh\marsproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7FBBDEF-A6E4-4B9E-B95B-86BE92E735BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658A063-05E0-4617-9E6D-C5F4D9966567}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BDF4A66D-5471-4927-8EF9-462A441976A3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="352">
   <si>
     <t>Alif Alfiansyah</t>
   </si>
@@ -1069,9 +1069,6 @@
   </si>
   <si>
     <t>MATEMATIKA</t>
-  </si>
-  <si>
-    <t>Matematika</t>
   </si>
   <si>
     <t>No</t>
@@ -1483,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1187D06-E3F2-4645-9FA2-5CA9F45A1EDE}">
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1496,16 +1493,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1589,7 +1586,7 @@
         <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2457,7 +2454,7 @@
         <v>324</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2961,7 +2958,7 @@
         <v>324</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3199,7 +3196,7 @@
         <v>324</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3591,7 +3588,7 @@
         <v>324</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3605,7 +3602,7 @@
         <v>324</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3627,7 +3624,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>19</v>
@@ -4599,7 +4596,7 @@
         <v>324</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
